--- a/data/pca/factorExposure/factorExposure_2017-02-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01352426741302855</v>
+        <v>0.01163735870527826</v>
       </c>
       <c r="C2">
-        <v>-0.01955732465263239</v>
+        <v>-0.04155883924611906</v>
       </c>
       <c r="D2">
-        <v>0.02426526340111931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03045336200283681</v>
+      </c>
+      <c r="E2">
+        <v>0.04493532891648605</v>
+      </c>
+      <c r="F2">
+        <v>0.005528215945510795</v>
+      </c>
+      <c r="G2">
+        <v>-0.1106586064494055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02492121484531519</v>
+        <v>0.03843789145149023</v>
       </c>
       <c r="C3">
-        <v>0.0007067897949378182</v>
+        <v>-0.1012909361398287</v>
       </c>
       <c r="D3">
-        <v>0.09177248994282977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01795966164356887</v>
+      </c>
+      <c r="E3">
+        <v>0.1029587817390471</v>
+      </c>
+      <c r="F3">
+        <v>0.02021240635043054</v>
+      </c>
+      <c r="G3">
+        <v>-0.1388577560023312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0289233154404315</v>
+        <v>0.05494767147065418</v>
       </c>
       <c r="C4">
-        <v>-0.01104772246802232</v>
+        <v>-0.06734482351130341</v>
       </c>
       <c r="D4">
-        <v>0.07766825639478463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02527355573708072</v>
+      </c>
+      <c r="E4">
+        <v>0.0413670531086688</v>
+      </c>
+      <c r="F4">
+        <v>-0.0003266882040190522</v>
+      </c>
+      <c r="G4">
+        <v>-0.104155094256564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.005179320487320185</v>
+        <v>0.03477340295954059</v>
       </c>
       <c r="C6">
-        <v>-0.01418209111095832</v>
+        <v>-0.05129621110024771</v>
       </c>
       <c r="D6">
-        <v>0.06325443119417962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01780007345187815</v>
+      </c>
+      <c r="E6">
+        <v>0.044869660115318</v>
+      </c>
+      <c r="F6">
+        <v>-0.0001211406647313155</v>
+      </c>
+      <c r="G6">
+        <v>-0.08826790925958719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004318749450586708</v>
+        <v>0.02104203745907356</v>
       </c>
       <c r="C7">
-        <v>-0.01421862609638233</v>
+        <v>-0.04004861006451446</v>
       </c>
       <c r="D7">
-        <v>0.03755998527410326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01403504252467012</v>
+      </c>
+      <c r="E7">
+        <v>0.01053068091051722</v>
+      </c>
+      <c r="F7">
+        <v>0.00140773714082404</v>
+      </c>
+      <c r="G7">
+        <v>-0.1224389207350709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004385602702372241</v>
+        <v>0.003296757733328172</v>
       </c>
       <c r="C8">
-        <v>-0.002515292178048414</v>
+        <v>-0.02398147145524985</v>
       </c>
       <c r="D8">
-        <v>-0.01022031904546293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004127650939482808</v>
+      </c>
+      <c r="E8">
+        <v>0.03349151977817333</v>
+      </c>
+      <c r="F8">
+        <v>0.001942155333248498</v>
+      </c>
+      <c r="G8">
+        <v>-0.07205108582534439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.007876440236141776</v>
+        <v>0.03283455323451335</v>
       </c>
       <c r="C9">
-        <v>-0.01157200465956263</v>
+        <v>-0.04864104468059657</v>
       </c>
       <c r="D9">
-        <v>0.04924519626248176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01670325752083304</v>
+      </c>
+      <c r="E9">
+        <v>0.02782452330783988</v>
+      </c>
+      <c r="F9">
+        <v>-0.00122298063762709</v>
+      </c>
+      <c r="G9">
+        <v>-0.1062419854259207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1449250696569288</v>
+        <v>0.09939233456866216</v>
       </c>
       <c r="C10">
-        <v>0.07241144392742689</v>
+        <v>0.1820802942493012</v>
       </c>
       <c r="D10">
-        <v>-0.1339694843434911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01558039630320044</v>
+      </c>
+      <c r="E10">
+        <v>0.01939690634822826</v>
+      </c>
+      <c r="F10">
+        <v>0.02380214397065684</v>
+      </c>
+      <c r="G10">
+        <v>-0.0534712940317392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.003105185188120143</v>
+        <v>0.03481147638447686</v>
       </c>
       <c r="C11">
-        <v>0.0004792156808223787</v>
+        <v>-0.05202513447569614</v>
       </c>
       <c r="D11">
-        <v>0.04510518143794595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002767446848283733</v>
+      </c>
+      <c r="E11">
+        <v>0.0232630254503952</v>
+      </c>
+      <c r="F11">
+        <v>-0.01584869230226859</v>
+      </c>
+      <c r="G11">
+        <v>-0.09045641410390662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006760406586698659</v>
+        <v>0.03729079550447982</v>
       </c>
       <c r="C12">
-        <v>-0.003275885314356671</v>
+        <v>-0.04710928962654905</v>
       </c>
       <c r="D12">
-        <v>0.04053792296586778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.00664248362003214</v>
+      </c>
+      <c r="E12">
+        <v>0.01044751891452567</v>
+      </c>
+      <c r="F12">
+        <v>6.637706554807744e-05</v>
+      </c>
+      <c r="G12">
+        <v>-0.08255431866285619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009649433223792964</v>
+        <v>0.01341176608343871</v>
       </c>
       <c r="C13">
-        <v>-0.01918963250714353</v>
+        <v>-0.04162585384590693</v>
       </c>
       <c r="D13">
-        <v>0.02687126258392547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02749172638788454</v>
+      </c>
+      <c r="E13">
+        <v>0.04402989744449569</v>
+      </c>
+      <c r="F13">
+        <v>0.007084045043417372</v>
+      </c>
+      <c r="G13">
+        <v>-0.1437150248020728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002998683958116624</v>
+        <v>0.01028989350484601</v>
       </c>
       <c r="C14">
-        <v>-0.009235426693819802</v>
+        <v>-0.02756780248872216</v>
       </c>
       <c r="D14">
-        <v>0.01721177555075641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01033907139253292</v>
+      </c>
+      <c r="E14">
+        <v>0.009441550077059444</v>
+      </c>
+      <c r="F14">
+        <v>0.009662943271003251</v>
+      </c>
+      <c r="G14">
+        <v>-0.1126431554333961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005135699697716729</v>
+        <v>0.03373983962785986</v>
       </c>
       <c r="C16">
-        <v>0.001406611124503439</v>
+        <v>-0.04555824319788428</v>
       </c>
       <c r="D16">
-        <v>0.03569263436948362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002301163191447054</v>
+      </c>
+      <c r="E16">
+        <v>0.01916157792706846</v>
+      </c>
+      <c r="F16">
+        <v>0.002932479497344871</v>
+      </c>
+      <c r="G16">
+        <v>-0.09298312443116308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.007967545089594562</v>
+        <v>0.02082786564152441</v>
       </c>
       <c r="C19">
-        <v>-0.01073169118227225</v>
+        <v>-0.04927145754662481</v>
       </c>
       <c r="D19">
-        <v>0.03743054396772459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02015501873649833</v>
+      </c>
+      <c r="E19">
+        <v>0.08824984027329363</v>
+      </c>
+      <c r="F19">
+        <v>0.001227284187650879</v>
+      </c>
+      <c r="G19">
+        <v>-0.1460635269371623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.000795947260944662</v>
+        <v>0.0153064780637005</v>
       </c>
       <c r="C20">
-        <v>-0.01218338504036548</v>
+        <v>-0.04103982810387538</v>
       </c>
       <c r="D20">
-        <v>0.02660036930477049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01489363180822668</v>
+      </c>
+      <c r="E20">
+        <v>0.04090097705850041</v>
+      </c>
+      <c r="F20">
+        <v>0.02014204067537749</v>
+      </c>
+      <c r="G20">
+        <v>-0.115827695893329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.003919868518676867</v>
+        <v>0.0102921530036093</v>
       </c>
       <c r="C21">
-        <v>-0.01609079849046354</v>
+        <v>-0.03779974337215832</v>
       </c>
       <c r="D21">
-        <v>0.003825416932783028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01977005410886586</v>
+      </c>
+      <c r="E21">
+        <v>0.05019136643941562</v>
+      </c>
+      <c r="F21">
+        <v>0.01186366162850353</v>
+      </c>
+      <c r="G21">
+        <v>-0.1435431045814747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009273407559788628</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006397090021340762</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002216980799989437</v>
+      </c>
+      <c r="E22">
+        <v>0.01745036378715003</v>
+      </c>
+      <c r="F22">
+        <v>-0.008431771227028796</v>
+      </c>
+      <c r="G22">
+        <v>-0.004058209202443806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009324848415626628</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006398171859158814</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002214534700614343</v>
+      </c>
+      <c r="E23">
+        <v>0.01742822173454845</v>
+      </c>
+      <c r="F23">
+        <v>-0.008422080468699788</v>
+      </c>
+      <c r="G23">
+        <v>-0.003959534547069926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.001206563256085092</v>
+        <v>0.02894310103607906</v>
       </c>
       <c r="C24">
-        <v>-0.006394502468399853</v>
+        <v>-0.04881077238074733</v>
       </c>
       <c r="D24">
-        <v>0.03756078757358763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00738606097388961</v>
+      </c>
+      <c r="E24">
+        <v>0.01722793735110831</v>
+      </c>
+      <c r="F24">
+        <v>-0.006605097284114746</v>
+      </c>
+      <c r="G24">
+        <v>-0.09244178657937559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01312046949927503</v>
+        <v>0.04223241413085777</v>
       </c>
       <c r="C25">
-        <v>-0.00581381469246738</v>
+        <v>-0.05677230180658606</v>
       </c>
       <c r="D25">
-        <v>0.05470837470327494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01147663483893014</v>
+      </c>
+      <c r="E25">
+        <v>0.00759900043830875</v>
+      </c>
+      <c r="F25">
+        <v>-0.004299428196250319</v>
+      </c>
+      <c r="G25">
+        <v>-0.09835769073706228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004918052296897154</v>
+        <v>0.01464963286490264</v>
       </c>
       <c r="C26">
-        <v>-0.02190498022060994</v>
+        <v>-0.01125428360411916</v>
       </c>
       <c r="D26">
-        <v>-0.003627040819560425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02419563496312174</v>
+      </c>
+      <c r="E26">
+        <v>0.009159353813897248</v>
+      </c>
+      <c r="F26">
+        <v>0.007155117390935034</v>
+      </c>
+      <c r="G26">
+        <v>-0.08608144214618163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1952319974743672</v>
+        <v>0.1289524460264445</v>
       </c>
       <c r="C28">
-        <v>0.08093154800675173</v>
+        <v>0.2423311785004905</v>
       </c>
       <c r="D28">
-        <v>-0.1642015117935511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006703008304044587</v>
+      </c>
+      <c r="E28">
+        <v>0.005508829251599308</v>
+      </c>
+      <c r="F28">
+        <v>0.02154454271083389</v>
+      </c>
+      <c r="G28">
+        <v>-0.05111224281569726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.004173179681937819</v>
+        <v>0.009676726996096339</v>
       </c>
       <c r="C29">
-        <v>-0.005536465086111671</v>
+        <v>-0.02298074866405755</v>
       </c>
       <c r="D29">
-        <v>0.01816756214977494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009340000276293607</v>
+      </c>
+      <c r="E29">
+        <v>0.003127105114080316</v>
+      </c>
+      <c r="F29">
+        <v>0.01420339539962046</v>
+      </c>
+      <c r="G29">
+        <v>-0.1020394388161476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01159303073551415</v>
+        <v>0.03917799217970944</v>
       </c>
       <c r="C30">
-        <v>-0.02112282601243217</v>
+        <v>-0.06789650845463405</v>
       </c>
       <c r="D30">
-        <v>0.09576222481273075</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02991234825049711</v>
+      </c>
+      <c r="E30">
+        <v>0.0725708025662079</v>
+      </c>
+      <c r="F30">
+        <v>-0.02992288326439296</v>
+      </c>
+      <c r="G30">
+        <v>-0.1350637234476674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0209719382055058</v>
+        <v>0.05344913049987531</v>
       </c>
       <c r="C31">
-        <v>0.004505544090623211</v>
+        <v>-0.04014676213307631</v>
       </c>
       <c r="D31">
-        <v>0.02439966828750258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004037948907418729</v>
+      </c>
+      <c r="E31">
+        <v>-0.001757184417477086</v>
+      </c>
+      <c r="F31">
+        <v>0.03721266552568957</v>
+      </c>
+      <c r="G31">
+        <v>-0.09732968737531818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005712591318196757</v>
+        <v>0.002108274733808676</v>
       </c>
       <c r="C32">
-        <v>0.01128657604106059</v>
+        <v>-0.02224145649340182</v>
       </c>
       <c r="D32">
-        <v>0.013328482702584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002285005365800156</v>
+      </c>
+      <c r="E32">
+        <v>0.04395593442929269</v>
+      </c>
+      <c r="F32">
+        <v>-0.03247927641310359</v>
+      </c>
+      <c r="G32">
+        <v>-0.08368481076915242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.001585525959535166</v>
+        <v>0.02737165228562216</v>
       </c>
       <c r="C33">
-        <v>-0.01170766011029878</v>
+        <v>-0.05065395093027564</v>
       </c>
       <c r="D33">
-        <v>0.03479997201973062</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.016906547471674</v>
+      </c>
+      <c r="E33">
+        <v>0.05298386940780599</v>
+      </c>
+      <c r="F33">
+        <v>-0.008027766389845942</v>
+      </c>
+      <c r="G33">
+        <v>-0.1640407678922907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01616213000034936</v>
+        <v>0.04066774539536003</v>
       </c>
       <c r="C34">
-        <v>0.01345395961158182</v>
+        <v>-0.05893057657328833</v>
       </c>
       <c r="D34">
-        <v>0.05432160432688339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004109004058576172</v>
+      </c>
+      <c r="E34">
+        <v>0.01467101499111534</v>
+      </c>
+      <c r="F34">
+        <v>-0.01900120723754459</v>
+      </c>
+      <c r="G34">
+        <v>-0.09366484562536534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007310327721579444</v>
+        <v>0.01617769647320752</v>
       </c>
       <c r="C36">
-        <v>-0.008359267712968493</v>
+        <v>-0.01016930492492395</v>
       </c>
       <c r="D36">
-        <v>-0.002107388066050764</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01292930731295574</v>
+      </c>
+      <c r="E36">
+        <v>0.01061760041344395</v>
+      </c>
+      <c r="F36">
+        <v>0.009337354206861275</v>
+      </c>
+      <c r="G36">
+        <v>-0.09421499740365562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01875284848209786</v>
+        <v>0.03244412537852938</v>
       </c>
       <c r="C38">
-        <v>0.01689283392624061</v>
+        <v>-0.02875511854106842</v>
       </c>
       <c r="D38">
-        <v>0.03102794366021717</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007674202539884717</v>
+      </c>
+      <c r="E38">
+        <v>0.005334150650280806</v>
+      </c>
+      <c r="F38">
+        <v>0.01900152068073349</v>
+      </c>
+      <c r="G38">
+        <v>-0.08673925828524752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01405312913628035</v>
+        <v>0.03639001497410294</v>
       </c>
       <c r="C39">
-        <v>-0.01620502401045168</v>
+        <v>-0.078908618354202</v>
       </c>
       <c r="D39">
-        <v>0.08889110313376886</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01243247718993279</v>
+      </c>
+      <c r="E39">
+        <v>0.03379000828640946</v>
+      </c>
+      <c r="F39">
+        <v>-0.01628444402587281</v>
+      </c>
+      <c r="G39">
+        <v>-0.09722612005387321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01206342318728824</v>
+        <v>0.0140583855164988</v>
       </c>
       <c r="C40">
-        <v>-0.005827253385525559</v>
+        <v>-0.03848500961603488</v>
       </c>
       <c r="D40">
-        <v>0.01978965035282714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01516529313510412</v>
+      </c>
+      <c r="E40">
+        <v>0.03536890359692776</v>
+      </c>
+      <c r="F40">
+        <v>0.01316858235858506</v>
+      </c>
+      <c r="G40">
+        <v>-0.1257183429196039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0117445645664321</v>
+        <v>0.02072544766739186</v>
       </c>
       <c r="C41">
-        <v>0.001677818839130313</v>
+        <v>-0.003196918152361021</v>
       </c>
       <c r="D41">
-        <v>-0.01183176515988327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004948240683145492</v>
+      </c>
+      <c r="E41">
+        <v>0.009791146320363264</v>
+      </c>
+      <c r="F41">
+        <v>0.01589339565485012</v>
+      </c>
+      <c r="G41">
+        <v>-0.09006717898422893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.02288890736233339</v>
+        <v>0.005921669669635148</v>
       </c>
       <c r="C42">
-        <v>-0.089192170733511</v>
+        <v>-0.02428253898603723</v>
       </c>
       <c r="D42">
-        <v>0.07277928385474464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08657809561598404</v>
+      </c>
+      <c r="E42">
+        <v>-0.000919410371182795</v>
+      </c>
+      <c r="F42">
+        <v>0.03322450871891954</v>
+      </c>
+      <c r="G42">
+        <v>0.02637761536844238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0129724467940893</v>
+        <v>0.03587995622120444</v>
       </c>
       <c r="C43">
-        <v>0.001508063595708628</v>
+        <v>-0.01905598081179645</v>
       </c>
       <c r="D43">
-        <v>-0.009132127082682726</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006138526699700533</v>
+      </c>
+      <c r="E43">
+        <v>0.02333700924162443</v>
+      </c>
+      <c r="F43">
+        <v>0.01079181656494059</v>
+      </c>
+      <c r="G43">
+        <v>-0.1191544745991205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.004340429754132738</v>
+        <v>0.01352022115734453</v>
       </c>
       <c r="C44">
-        <v>-0.005333227671418396</v>
+        <v>-0.05802815178119079</v>
       </c>
       <c r="D44">
-        <v>0.0480141776802557</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007290021760124291</v>
+      </c>
+      <c r="E44">
+        <v>0.02970540335302886</v>
+      </c>
+      <c r="F44">
+        <v>0.01444586705501551</v>
+      </c>
+      <c r="G44">
+        <v>-0.113825245044699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0003572680264130203</v>
+        <v>0.009093256713459766</v>
       </c>
       <c r="C46">
-        <v>-0.01068970114856291</v>
+        <v>-0.01523654839400692</v>
       </c>
       <c r="D46">
-        <v>-0.005454976656054148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01270147190591924</v>
+      </c>
+      <c r="E46">
+        <v>-0.001310380358492108</v>
+      </c>
+      <c r="F46">
+        <v>0.01797910367457321</v>
+      </c>
+      <c r="G46">
+        <v>-0.1090397821445139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02792871465462218</v>
+        <v>0.07931164477582871</v>
       </c>
       <c r="C47">
-        <v>0.01503676649309806</v>
+        <v>-0.07151224707613081</v>
       </c>
       <c r="D47">
-        <v>0.07083704373613488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004972599904190342</v>
+      </c>
+      <c r="E47">
+        <v>-0.0102465356049403</v>
+      </c>
+      <c r="F47">
+        <v>0.05168476983102761</v>
+      </c>
+      <c r="G47">
+        <v>-0.08465589756959242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00502619142956928</v>
+        <v>0.01969536050979366</v>
       </c>
       <c r="C48">
-        <v>0.001024398689491388</v>
+        <v>-0.01269562415433297</v>
       </c>
       <c r="D48">
-        <v>0.009371578876218804</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002334519037067344</v>
+      </c>
+      <c r="E48">
+        <v>0.004803586289007972</v>
+      </c>
+      <c r="F48">
+        <v>0.02045116544615923</v>
+      </c>
+      <c r="G48">
+        <v>-0.1025946713266684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03918237356685061</v>
+        <v>0.0746567826013769</v>
       </c>
       <c r="C50">
-        <v>0.01811134034125812</v>
+        <v>-0.07338296436891976</v>
       </c>
       <c r="D50">
-        <v>0.05901880492837592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001998674757089543</v>
+      </c>
+      <c r="E50">
+        <v>-0.009901521654661688</v>
+      </c>
+      <c r="F50">
+        <v>0.05110241795151087</v>
+      </c>
+      <c r="G50">
+        <v>-0.09532992136586435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0009717432399324863</v>
+        <v>0.01280545540348128</v>
       </c>
       <c r="C51">
-        <v>-0.006176511917385306</v>
+        <v>-0.0377804665861794</v>
       </c>
       <c r="D51">
-        <v>0.02019879520955671</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01117763202569818</v>
+      </c>
+      <c r="E51">
+        <v>0.03117831750720353</v>
+      </c>
+      <c r="F51">
+        <v>-0.01371996398408083</v>
+      </c>
+      <c r="G51">
+        <v>-0.1237994382291994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04271397812136301</v>
+        <v>0.08110624766008004</v>
       </c>
       <c r="C53">
-        <v>0.0195222434705865</v>
+        <v>-0.08449053541014967</v>
       </c>
       <c r="D53">
-        <v>0.101658245866857</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003621276391652315</v>
+      </c>
+      <c r="E53">
+        <v>-0.03256384326390167</v>
+      </c>
+      <c r="F53">
+        <v>0.05763572286198371</v>
+      </c>
+      <c r="G53">
+        <v>-0.08654540093371522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01517480798463999</v>
+        <v>0.0328928726293855</v>
       </c>
       <c r="C54">
-        <v>0.01005755283566716</v>
+        <v>-0.01876119609746379</v>
       </c>
       <c r="D54">
-        <v>-0.003940206352543827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009825918597929039</v>
+      </c>
+      <c r="E54">
+        <v>0.01898236009447964</v>
+      </c>
+      <c r="F54">
+        <v>0.009153226645416627</v>
+      </c>
+      <c r="G54">
+        <v>-0.1114591191097482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02933794299206197</v>
+        <v>0.07377752859465185</v>
       </c>
       <c r="C55">
-        <v>0.01493820813430661</v>
+        <v>-0.06753953881786305</v>
       </c>
       <c r="D55">
-        <v>0.08636680534737655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005303648595434794</v>
+      </c>
+      <c r="E55">
+        <v>-0.03109211229249449</v>
+      </c>
+      <c r="F55">
+        <v>0.05517465440156458</v>
+      </c>
+      <c r="G55">
+        <v>-0.06497806349446172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.06994705366027426</v>
+        <v>0.1358975136177922</v>
       </c>
       <c r="C56">
-        <v>0.03721762087545041</v>
+        <v>-0.1066114726080508</v>
       </c>
       <c r="D56">
-        <v>0.1500716930085185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01293984211034329</v>
+      </c>
+      <c r="E56">
+        <v>-0.03890737955249535</v>
+      </c>
+      <c r="F56">
+        <v>0.07038626270037131</v>
+      </c>
+      <c r="G56">
+        <v>-0.03955814115105042</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01369000056925525</v>
+        <v>0.004301860405345826</v>
       </c>
       <c r="C57">
-        <v>-0.01808482214387052</v>
+        <v>-0.005892998168617001</v>
       </c>
       <c r="D57">
-        <v>0.02192761759265926</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02276568188800081</v>
+      </c>
+      <c r="E57">
+        <v>0.02489530133240893</v>
+      </c>
+      <c r="F57">
+        <v>-0.002555188084622891</v>
+      </c>
+      <c r="G57">
+        <v>-0.01939592985248999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.004376013557315262</v>
+        <v>0.04554125458873179</v>
       </c>
       <c r="C58">
-        <v>0.000572905193044985</v>
+        <v>-0.0433907907407474</v>
       </c>
       <c r="D58">
-        <v>0.140233468714735</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02496212705250379</v>
+      </c>
+      <c r="E58">
+        <v>0.8399864392876309</v>
+      </c>
+      <c r="F58">
+        <v>0.4337533225485959</v>
+      </c>
+      <c r="G58">
+        <v>0.2497057790099589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2243367035700509</v>
+        <v>0.1600474686782052</v>
       </c>
       <c r="C59">
-        <v>0.09966678164757879</v>
+        <v>0.206957309818434</v>
       </c>
       <c r="D59">
-        <v>-0.1399876241560606</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01117367688515037</v>
+      </c>
+      <c r="E59">
+        <v>0.0258430766637022</v>
+      </c>
+      <c r="F59">
+        <v>0.004390994359544645</v>
+      </c>
+      <c r="G59">
+        <v>-0.03732990850434171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2319178188891303</v>
+        <v>0.2876496628705942</v>
       </c>
       <c r="C60">
-        <v>0.0846192311255078</v>
+        <v>-0.1148561630581065</v>
       </c>
       <c r="D60">
-        <v>0.1820370534741369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01389564489433082</v>
+      </c>
+      <c r="E60">
+        <v>0.07144674872786402</v>
+      </c>
+      <c r="F60">
+        <v>-0.3386268987993723</v>
+      </c>
+      <c r="G60">
+        <v>0.1588704256358371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002067586241803854</v>
+        <v>0.03896374170308461</v>
       </c>
       <c r="C61">
-        <v>-0.004553816655335423</v>
+        <v>-0.06459870604380229</v>
       </c>
       <c r="D61">
-        <v>0.06985280424903918</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006228331396328549</v>
+      </c>
+      <c r="E61">
+        <v>0.03098974295849653</v>
+      </c>
+      <c r="F61">
+        <v>-0.01045780643281117</v>
+      </c>
+      <c r="G61">
+        <v>-0.1030725850039684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.002863388138963406</v>
+        <v>0.01452105476270953</v>
       </c>
       <c r="C63">
-        <v>-0.00673085538053851</v>
+        <v>-0.03022120821290633</v>
       </c>
       <c r="D63">
-        <v>0.02180316692656794</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008794203057491708</v>
+      </c>
+      <c r="E63">
+        <v>0.005268668231101092</v>
+      </c>
+      <c r="F63">
+        <v>0.01478187868142652</v>
+      </c>
+      <c r="G63">
+        <v>-0.09428332711276834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02741337645198426</v>
+        <v>0.04911136848621417</v>
       </c>
       <c r="C64">
-        <v>0.006539759072807173</v>
+        <v>-0.0462354881723851</v>
       </c>
       <c r="D64">
-        <v>0.05024160505974174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006381520239584043</v>
+      </c>
+      <c r="E64">
+        <v>0.005336923963102451</v>
+      </c>
+      <c r="F64">
+        <v>-0.004274240731399205</v>
+      </c>
+      <c r="G64">
+        <v>-0.1013881120814959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03907891375899362</v>
+        <v>0.0739407415896101</v>
       </c>
       <c r="C65">
-        <v>-0.0008321239358974671</v>
+        <v>-0.06025008378897732</v>
       </c>
       <c r="D65">
-        <v>0.112558821807109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01739229180071093</v>
+      </c>
+      <c r="E65">
+        <v>0.04938397028360794</v>
+      </c>
+      <c r="F65">
+        <v>-0.01761108790911334</v>
+      </c>
+      <c r="G65">
+        <v>-0.04448671100763863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01256266552130555</v>
+        <v>0.04813104190919251</v>
       </c>
       <c r="C66">
-        <v>-0.01494327543656092</v>
+        <v>-0.1061904202202217</v>
       </c>
       <c r="D66">
-        <v>0.1308125982958453</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01263153112861204</v>
+      </c>
+      <c r="E66">
+        <v>0.05146726426920851</v>
+      </c>
+      <c r="F66">
+        <v>-0.02585952163856298</v>
+      </c>
+      <c r="G66">
+        <v>-0.1056320946028569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04132956796143802</v>
+        <v>0.05562399167584706</v>
       </c>
       <c r="C67">
-        <v>0.02315991177880962</v>
+        <v>-0.03387697682225848</v>
       </c>
       <c r="D67">
-        <v>0.05150817355318394</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006245993875420758</v>
+      </c>
+      <c r="E67">
+        <v>-0.005814471840997234</v>
+      </c>
+      <c r="F67">
+        <v>0.01572807902809982</v>
+      </c>
+      <c r="G67">
+        <v>-0.07303663178669784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2264351650354</v>
+        <v>0.1595238779744716</v>
       </c>
       <c r="C68">
-        <v>0.07983955911686114</v>
+        <v>0.2711218332719914</v>
       </c>
       <c r="D68">
-        <v>-0.1955973989462007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004727722350023783</v>
+      </c>
+      <c r="E68">
+        <v>0.004809442796196474</v>
+      </c>
+      <c r="F68">
+        <v>0.04441185373676405</v>
+      </c>
+      <c r="G68">
+        <v>-0.02172668504911672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03467741863298595</v>
+        <v>0.08205739970838478</v>
       </c>
       <c r="C69">
-        <v>0.02207187119782878</v>
+        <v>-0.0744467742769712</v>
       </c>
       <c r="D69">
-        <v>0.07165072694590599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008929540260216008</v>
+      </c>
+      <c r="E69">
+        <v>-0.02454047862606414</v>
+      </c>
+      <c r="F69">
+        <v>0.03158395684996589</v>
+      </c>
+      <c r="G69">
+        <v>-0.09792629236857781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1961415561794099</v>
+        <v>0.1447559750359331</v>
       </c>
       <c r="C71">
-        <v>0.07765739883708288</v>
+        <v>0.2288429514485081</v>
       </c>
       <c r="D71">
-        <v>-0.1403570680608872</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003016958927685671</v>
+      </c>
+      <c r="E71">
+        <v>0.03330661227234136</v>
+      </c>
+      <c r="F71">
+        <v>0.02819136133487466</v>
+      </c>
+      <c r="G71">
+        <v>-0.06581505957108595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.02944228504053002</v>
+        <v>0.08734135311692058</v>
       </c>
       <c r="C72">
-        <v>0.02085672165600698</v>
+        <v>-0.06987053322196526</v>
       </c>
       <c r="D72">
-        <v>0.08996380354463951</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008393987179785475</v>
+      </c>
+      <c r="E72">
+        <v>-0.006582537183031925</v>
+      </c>
+      <c r="F72">
+        <v>-0.03507758718147826</v>
+      </c>
+      <c r="G72">
+        <v>-0.09363176214772749</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3073719159845482</v>
+        <v>0.3715112541716129</v>
       </c>
       <c r="C73">
-        <v>0.1088122468294306</v>
+        <v>-0.1225228816939669</v>
       </c>
       <c r="D73">
-        <v>0.2890290556624012</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02440628601415078</v>
+      </c>
+      <c r="E73">
+        <v>0.1821036306254316</v>
+      </c>
+      <c r="F73">
+        <v>-0.5591590233603142</v>
+      </c>
+      <c r="G73">
+        <v>0.3024240707629833</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.05857415137611019</v>
+        <v>0.1042069357439354</v>
       </c>
       <c r="C74">
-        <v>0.0324837389787198</v>
+        <v>-0.1098718619445928</v>
       </c>
       <c r="D74">
-        <v>0.1605688984942127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009573027034462557</v>
+      </c>
+      <c r="E74">
+        <v>-0.01547164467520117</v>
+      </c>
+      <c r="F74">
+        <v>0.06291732001613601</v>
+      </c>
+      <c r="G74">
+        <v>-0.06980542736339292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1514507851790325</v>
+        <v>0.2466878498989201</v>
       </c>
       <c r="C75">
-        <v>0.07925662384193211</v>
+        <v>-0.1531461008266543</v>
       </c>
       <c r="D75">
-        <v>0.2755736985640845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03142031004623604</v>
+      </c>
+      <c r="E75">
+        <v>-0.09165582296013998</v>
+      </c>
+      <c r="F75">
+        <v>0.1556199183227389</v>
+      </c>
+      <c r="G75">
+        <v>0.02577255562636259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.06178942504638587</v>
+        <v>0.1152021690940737</v>
       </c>
       <c r="C76">
-        <v>0.03944336010542873</v>
+        <v>-0.1113461744106171</v>
       </c>
       <c r="D76">
-        <v>0.1777401650553498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01769857124129356</v>
+      </c>
+      <c r="E76">
+        <v>-0.04040266699320511</v>
+      </c>
+      <c r="F76">
+        <v>0.09031933354154043</v>
+      </c>
+      <c r="G76">
+        <v>-0.05042382743860351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.02491462631703079</v>
+        <v>0.07128487277125764</v>
       </c>
       <c r="C77">
-        <v>0.001510524768593216</v>
+        <v>-0.05733705724939323</v>
       </c>
       <c r="D77">
-        <v>0.07893199378413872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01023955331829054</v>
+      </c>
+      <c r="E77">
+        <v>0.05313719941762901</v>
+      </c>
+      <c r="F77">
+        <v>0.003000254002990505</v>
+      </c>
+      <c r="G77">
+        <v>-0.0742162133374453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01707387987629557</v>
+        <v>0.04158399922198907</v>
       </c>
       <c r="C78">
-        <v>0.003537922045104956</v>
+        <v>-0.05202952072585672</v>
       </c>
       <c r="D78">
-        <v>0.06416881094531465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006813993972530453</v>
+      </c>
+      <c r="E78">
+        <v>0.03857346643243085</v>
+      </c>
+      <c r="F78">
+        <v>-0.03139323793165877</v>
+      </c>
+      <c r="G78">
+        <v>-0.1045401758905606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0008919053759600357</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0001233901743371514</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003605748512142066</v>
+      </c>
+      <c r="E79">
+        <v>0.004249335002548</v>
+      </c>
+      <c r="F79">
+        <v>-0.001072405032043021</v>
+      </c>
+      <c r="G79">
+        <v>-0.003112151299781837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03315572888560378</v>
+        <v>0.04226604991667094</v>
       </c>
       <c r="C80">
-        <v>0.001780337865137738</v>
+        <v>-0.05188963840026509</v>
       </c>
       <c r="D80">
-        <v>0.07896244478105537</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01383475765619891</v>
+      </c>
+      <c r="E80">
+        <v>0.02942970548372165</v>
+      </c>
+      <c r="F80">
+        <v>-0.001582522565526107</v>
+      </c>
+      <c r="G80">
+        <v>-0.05136208366762636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.07390768137473602</v>
+        <v>0.137823737289662</v>
       </c>
       <c r="C81">
-        <v>0.03881351516353801</v>
+        <v>-0.09772940042693953</v>
       </c>
       <c r="D81">
-        <v>0.151702106367955</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01527732603601827</v>
+      </c>
+      <c r="E81">
+        <v>-0.05432731566217508</v>
+      </c>
+      <c r="F81">
+        <v>0.1196015013500147</v>
+      </c>
+      <c r="G81">
+        <v>-0.02183482149392757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.006497543198914072</v>
+        <v>0.1470046086099401</v>
       </c>
       <c r="C82">
-        <v>0.002809375047359735</v>
+        <v>-0.0849512747789926</v>
       </c>
       <c r="D82">
-        <v>0.007277224972481868</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01250724929058294</v>
+      </c>
+      <c r="E82">
+        <v>-0.12954842395467</v>
+      </c>
+      <c r="F82">
+        <v>0.04965476395529107</v>
+      </c>
+      <c r="G82">
+        <v>-0.06244005175432676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.013511955505847</v>
+        <v>0.03417583299959295</v>
       </c>
       <c r="C83">
-        <v>0.001494138536565636</v>
+        <v>-0.03138736142743314</v>
       </c>
       <c r="D83">
-        <v>0.02065812062269226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006557273019107179</v>
+      </c>
+      <c r="E83">
+        <v>0.03410106110162754</v>
+      </c>
+      <c r="F83">
+        <v>-0.02730727714780576</v>
+      </c>
+      <c r="G83">
+        <v>-0.06089553743214293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1483407869500306</v>
+        <v>0.20800375274466</v>
       </c>
       <c r="C85">
-        <v>0.06466347188221586</v>
+        <v>-0.1480320256675633</v>
       </c>
       <c r="D85">
-        <v>0.2719478279829068</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01720743290035454</v>
+      </c>
+      <c r="E85">
+        <v>-0.1147972215941248</v>
+      </c>
+      <c r="F85">
+        <v>0.09115831147051073</v>
+      </c>
+      <c r="G85">
+        <v>0.06270871794114417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008986014818953456</v>
+        <v>0.01320025122214663</v>
       </c>
       <c r="C86">
-        <v>-0.001741104264389785</v>
+        <v>-0.02703538658401311</v>
       </c>
       <c r="D86">
-        <v>0.03189047243350168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.011508904285211</v>
+      </c>
+      <c r="E86">
+        <v>0.05366774426379427</v>
+      </c>
+      <c r="F86">
+        <v>-0.007544532031490348</v>
+      </c>
+      <c r="G86">
+        <v>-0.1800201485945764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.009448224300229126</v>
+        <v>0.02140925822996055</v>
       </c>
       <c r="C87">
-        <v>-0.013133475391217</v>
+        <v>-0.01731791959679372</v>
       </c>
       <c r="D87">
-        <v>0.0258181294377971</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01269944617869091</v>
+      </c>
+      <c r="E87">
+        <v>0.1006183752770441</v>
+      </c>
+      <c r="F87">
+        <v>0.01334890682822458</v>
+      </c>
+      <c r="G87">
+        <v>-0.1251004184341306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04258875490320285</v>
+        <v>0.09216010817785529</v>
       </c>
       <c r="C88">
-        <v>-0.006399244694911357</v>
+        <v>-0.07142951177750195</v>
       </c>
       <c r="D88">
-        <v>0.03826757223557151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02206798930463156</v>
+      </c>
+      <c r="E88">
+        <v>-0.006810607450378038</v>
+      </c>
+      <c r="F88">
+        <v>0.02026153809473215</v>
+      </c>
+      <c r="G88">
+        <v>-0.09920725617497578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3359717155145773</v>
+        <v>0.2346083666233807</v>
       </c>
       <c r="C89">
-        <v>0.1273103202805063</v>
+        <v>0.3642432120084612</v>
       </c>
       <c r="D89">
-        <v>-0.2524193929232923</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>2.488444802060276e-05</v>
+      </c>
+      <c r="E89">
+        <v>-0.02429506284568931</v>
+      </c>
+      <c r="F89">
+        <v>0.01952553837850703</v>
+      </c>
+      <c r="G89">
+        <v>-0.07780348488500902</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2855129510180007</v>
+        <v>0.2122732078278832</v>
       </c>
       <c r="C90">
-        <v>0.1119597043207565</v>
+        <v>0.3156351062525189</v>
       </c>
       <c r="D90">
-        <v>-0.2162837568803175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004619879950895307</v>
+      </c>
+      <c r="E90">
+        <v>-0.002780401881005539</v>
+      </c>
+      <c r="F90">
+        <v>0.0492846938125284</v>
+      </c>
+      <c r="G90">
+        <v>-0.04952354794271011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1164606832406876</v>
+        <v>0.1848428429370389</v>
       </c>
       <c r="C91">
-        <v>0.06419716920633381</v>
+        <v>-0.1379563130813517</v>
       </c>
       <c r="D91">
-        <v>0.1904894924091018</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02287895484744234</v>
+      </c>
+      <c r="E91">
+        <v>-0.08516117821813073</v>
+      </c>
+      <c r="F91">
+        <v>0.1214062007778376</v>
+      </c>
+      <c r="G91">
+        <v>-0.02357177541814737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2543425172165877</v>
+        <v>0.1993773935580752</v>
       </c>
       <c r="C92">
-        <v>0.1348407295378552</v>
+        <v>0.2574093036051485</v>
       </c>
       <c r="D92">
-        <v>-0.1353816377880238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03898811776616201</v>
+      </c>
+      <c r="E92">
+        <v>0.02206782496671377</v>
+      </c>
+      <c r="F92">
+        <v>0.05982655130573265</v>
+      </c>
+      <c r="G92">
+        <v>-0.09211347009475379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3082259142969735</v>
+        <v>0.2349758888114652</v>
       </c>
       <c r="C93">
-        <v>0.127492722582753</v>
+        <v>0.3099071714511085</v>
       </c>
       <c r="D93">
-        <v>-0.175415782932286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01109554112868973</v>
+      </c>
+      <c r="E93">
+        <v>0.003931633812660733</v>
+      </c>
+      <c r="F93">
+        <v>0.04143865017890053</v>
+      </c>
+      <c r="G93">
+        <v>-0.05780427750518662</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1610521429911269</v>
+        <v>0.3192197223893457</v>
       </c>
       <c r="C94">
-        <v>0.06189883143539437</v>
+        <v>-0.1891701021614353</v>
       </c>
       <c r="D94">
-        <v>0.2811301323069318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02189330016333621</v>
+      </c>
+      <c r="E94">
+        <v>-0.3042663334677781</v>
+      </c>
+      <c r="F94">
+        <v>0.4320303245447533</v>
+      </c>
+      <c r="G94">
+        <v>0.3909552350255099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.02306435580722257</v>
+        <v>0.09504066960325117</v>
       </c>
       <c r="C95">
-        <v>0.01926561722400421</v>
+        <v>-0.08135068639401373</v>
       </c>
       <c r="D95">
-        <v>0.1178482907080686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009750742924112646</v>
+      </c>
+      <c r="E95">
+        <v>0.09894297748693297</v>
+      </c>
+      <c r="F95">
+        <v>-0.1599492914728435</v>
+      </c>
+      <c r="G95">
+        <v>-0.03098158603195474</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1515416985478041</v>
+        <v>0.190713055479464</v>
       </c>
       <c r="C98">
-        <v>0.07899912950303331</v>
+        <v>-0.04769285793663363</v>
       </c>
       <c r="D98">
-        <v>0.1146241782568456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01106699785242173</v>
+      </c>
+      <c r="E98">
+        <v>0.1173580913743326</v>
+      </c>
+      <c r="F98">
+        <v>-0.2237364001160156</v>
+      </c>
+      <c r="G98">
+        <v>0.02294634509298388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.003800362949749961</v>
+        <v>0.009519445111690748</v>
       </c>
       <c r="C101">
-        <v>-0.005538355664947585</v>
+        <v>-0.02285576210135404</v>
       </c>
       <c r="D101">
-        <v>0.01842655714900325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009165132854419894</v>
+      </c>
+      <c r="E101">
+        <v>0.002759552594003656</v>
+      </c>
+      <c r="F101">
+        <v>0.01510727419266368</v>
+      </c>
+      <c r="G101">
+        <v>-0.1016314114081396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.07992010961307328</v>
+        <v>0.116889306510691</v>
       </c>
       <c r="C102">
-        <v>0.02757172303057243</v>
+        <v>-0.08319152105571556</v>
       </c>
       <c r="D102">
-        <v>0.1334847085082549</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0003518710566901502</v>
+      </c>
+      <c r="E102">
+        <v>-0.0413569446415005</v>
+      </c>
+      <c r="F102">
+        <v>0.0332222675937637</v>
+      </c>
+      <c r="G102">
+        <v>-0.0137990319522933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.3819545049712764</v>
+        <v>0.02127964485970955</v>
       </c>
       <c r="C104">
-        <v>-0.914557557900912</v>
+        <v>0.02984257686426965</v>
       </c>
       <c r="D104">
-        <v>-0.01435931440197968</v>
+        <v>0.9874854251564986</v>
+      </c>
+      <c r="E104">
+        <v>-0.06264436345364914</v>
+      </c>
+      <c r="F104">
+        <v>0.02886795207291521</v>
+      </c>
+      <c r="G104">
+        <v>0.04114770724553424</v>
       </c>
     </row>
   </sheetData>
